--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H2">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I2">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J2">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>578.025072604043</v>
+        <v>1412.730528420095</v>
       </c>
       <c r="R2">
-        <v>578.025072604043</v>
+        <v>12714.57475578085</v>
       </c>
       <c r="S2">
-        <v>0.1826218582769129</v>
+        <v>0.2467121240407004</v>
       </c>
       <c r="T2">
-        <v>0.1826218582769129</v>
+        <v>0.2467121240407004</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H3">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I3">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J3">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>554.5856395186192</v>
+        <v>1226.073353094179</v>
       </c>
       <c r="R3">
-        <v>554.5856395186192</v>
+        <v>11034.66017784761</v>
       </c>
       <c r="S3">
-        <v>0.1752163787745563</v>
+        <v>0.2141152577129132</v>
       </c>
       <c r="T3">
-        <v>0.1752163787745563</v>
+        <v>0.2141152577129132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H4">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I4">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J4">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>767.0538383936632</v>
+        <v>1714.266566527225</v>
       </c>
       <c r="R4">
-        <v>767.0538383936632</v>
+        <v>15428.39909874502</v>
       </c>
       <c r="S4">
-        <v>0.2423438082621847</v>
+        <v>0.2993708547325497</v>
       </c>
       <c r="T4">
-        <v>0.2423438082621847</v>
+        <v>0.2993708547325497</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H5">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I5">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J5">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>127.1368502858821</v>
+        <v>153.125656346884</v>
       </c>
       <c r="R5">
-        <v>127.1368502858821</v>
+        <v>1378.130907121956</v>
       </c>
       <c r="S5">
-        <v>0.04016775215317718</v>
+        <v>0.02674109121483664</v>
       </c>
       <c r="T5">
-        <v>0.04016775215317718</v>
+        <v>0.02674109121483664</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H6">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I6">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J6">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>121.9813374263061</v>
+        <v>132.8939122820053</v>
       </c>
       <c r="R6">
-        <v>121.9813374263061</v>
+        <v>1196.045210538048</v>
       </c>
       <c r="S6">
-        <v>0.0385389139186267</v>
+        <v>0.02320792161817186</v>
       </c>
       <c r="T6">
-        <v>0.0385389139186267</v>
+        <v>0.02320792161817185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H7">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I7">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J7">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>168.7138043575313</v>
+        <v>185.8091036275413</v>
       </c>
       <c r="R7">
-        <v>168.7138043575313</v>
+        <v>1672.281932647872</v>
       </c>
       <c r="S7">
-        <v>0.053303619391344</v>
+        <v>0.03244876336983764</v>
       </c>
       <c r="T7">
-        <v>0.053303619391344</v>
+        <v>0.03244876336983764</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H8">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I8">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J8">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>257.9209902318234</v>
+        <v>292.5150408097966</v>
       </c>
       <c r="R8">
-        <v>257.9209902318234</v>
+        <v>2632.63536728817</v>
       </c>
       <c r="S8">
-        <v>0.08148783289375193</v>
+        <v>0.05108334928724443</v>
       </c>
       <c r="T8">
-        <v>0.08148783289375193</v>
+        <v>0.05108334928724444</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H9">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I9">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J9">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>247.4620636585701</v>
+        <v>253.8664591025956</v>
       </c>
       <c r="R9">
-        <v>247.4620636585701</v>
+        <v>2284.79813192336</v>
       </c>
       <c r="S9">
-        <v>0.07818342847097408</v>
+        <v>0.04433395618479089</v>
       </c>
       <c r="T9">
-        <v>0.07818342847097408</v>
+        <v>0.04433395618479088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H10">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I10">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J10">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>342.2676540108113</v>
+        <v>354.9500379434489</v>
       </c>
       <c r="R10">
-        <v>342.2676540108113</v>
+        <v>3194.55034149104</v>
       </c>
       <c r="S10">
-        <v>0.1081364078584723</v>
+        <v>0.06198668183895521</v>
       </c>
       <c r="T10">
-        <v>0.1081364078584723</v>
+        <v>0.06198668183895522</v>
       </c>
     </row>
   </sheetData>
